--- a/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -518,10 +518,10 @@
         <v>45294</v>
       </c>
       <c r="H2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -581,29 +581,29 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -626,20 +626,20 @@
         <v>45298</v>
       </c>
       <c r="H5" t="n">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="I5" t="n">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19</v>
+        <v>467</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,33 +649,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="H6" t="n">
-        <v>24</v>
+        <v>490</v>
       </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>490</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>553</v>
+        <v>166</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
@@ -698,48 +698,12 @@
         <v>45299</v>
       </c>
       <c r="H7" t="n">
-        <v>580</v>
+        <v>192</v>
       </c>
       <c r="I7" t="n">
-        <v>580</v>
+        <v>192</v>
       </c>
       <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>159</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>LINE_B</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="H8" t="n">
-        <v>184</v>
-      </c>
-      <c r="I8" t="n">
-        <v>184</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,267 +439,6 @@
           <t>produced_qty</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>simulation_date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>production_plan_date</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>available_date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>uncon_planned_qty</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>con_planned_qty</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>changeover_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>86</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LINE_A</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="H2" t="n">
-        <v>90</v>
-      </c>
-      <c r="I2" t="n">
-        <v>90</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>77</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>LINE_A</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="H3" t="n">
-        <v>80</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>220</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LINE_A</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H4" t="n">
-        <v>230</v>
-      </c>
-      <c r="I4" t="n">
-        <v>230</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>53</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>LINE_B</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H5" t="n">
-        <v>64</v>
-      </c>
-      <c r="I5" t="n">
-        <v>64</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>467</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>LINE_A</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="H6" t="n">
-        <v>490</v>
-      </c>
-      <c r="I6" t="n">
-        <v>490</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>166</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>LINE_B</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="H7" t="n">
-        <v>192</v>
-      </c>
-      <c r="I7" t="n">
-        <v>192</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +443,375 @@
           <t>produced_qty</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>simulation_date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>production_plan_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>available_date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>uncon_planned_qty</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>con_planned_qty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>changeover_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>391</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H2" t="n">
+        <v>410</v>
+      </c>
+      <c r="I2" t="n">
+        <v>410</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>606</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H4" t="n">
+        <v>640</v>
+      </c>
+      <c r="I4" t="n">
+        <v>640</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>120</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H5" t="n">
+        <v>128</v>
+      </c>
+      <c r="I5" t="n">
+        <v>128</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>606</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H6" t="n">
+        <v>640</v>
+      </c>
+      <c r="I6" t="n">
+        <v>640</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>267</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H7" t="n">
+        <v>288</v>
+      </c>
+      <c r="I7" t="n">
+        <v>288</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>96</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>222</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H9" t="n">
+        <v>256</v>
+      </c>
+      <c r="I9" t="n">
+        <v>256</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>44</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="H10" t="n">
+        <v>48</v>
+      </c>
+      <c r="I10" t="n">
+        <v>48</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>391</v>
+        <v>105</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -518,20 +518,20 @@
         <v>45295</v>
       </c>
       <c r="H2" t="n">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="I2" t="n">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H3" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>606</v>
+        <v>143</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -581,29 +581,29 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="H4" t="n">
-        <v>640</v>
+        <v>150</v>
       </c>
       <c r="I4" t="n">
-        <v>640</v>
+        <v>150</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -613,33 +613,33 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="H5" t="n">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="I5" t="n">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>606</v>
+        <v>33</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,33 +649,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="H6" t="n">
-        <v>640</v>
+        <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>640</v>
+        <v>40</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>267</v>
+        <v>410</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,33 +685,33 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="H7" t="n">
-        <v>288</v>
+        <v>430</v>
       </c>
       <c r="I7" t="n">
-        <v>288</v>
+        <v>430</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -721,33 +721,33 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>222</v>
+        <v>439</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -757,29 +757,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="H9" t="n">
-        <v>256</v>
+        <v>460</v>
       </c>
       <c r="I9" t="n">
-        <v>256</v>
+        <v>460</v>
       </c>
       <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -797,19 +797,19 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="H10" t="n">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="I10" t="n">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>

--- a/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>105</v>
+        <v>420</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -518,16 +518,16 @@
         <v>45295</v>
       </c>
       <c r="H2" t="n">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="I2" t="n">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105</v>
+        <v>684</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -554,16 +554,16 @@
         <v>45296</v>
       </c>
       <c r="H3" t="n">
-        <v>110</v>
+        <v>720</v>
       </c>
       <c r="I3" t="n">
-        <v>110</v>
+        <v>720</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>143</v>
+        <v>1027</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -590,16 +590,16 @@
         <v>45297</v>
       </c>
       <c r="H4" t="n">
-        <v>150</v>
+        <v>1080</v>
       </c>
       <c r="I4" t="n">
-        <v>150</v>
+        <v>1080</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>324</v>
+        <v>999</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -626,16 +626,16 @@
         <v>45298</v>
       </c>
       <c r="H5" t="n">
-        <v>340</v>
+        <v>1050</v>
       </c>
       <c r="I5" t="n">
-        <v>340</v>
+        <v>1050</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -662,16 +662,16 @@
         <v>45298</v>
       </c>
       <c r="H6" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>410</v>
+        <v>656</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -698,16 +698,16 @@
         <v>45299</v>
       </c>
       <c r="H7" t="n">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="I7" t="n">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -734,20 +734,20 @@
         <v>45299</v>
       </c>
       <c r="H8" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I8" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>439</v>
+        <v>160</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
@@ -770,48 +770,12 @@
         <v>45300</v>
       </c>
       <c r="H9" t="n">
-        <v>460</v>
+        <v>176</v>
       </c>
       <c r="I9" t="n">
-        <v>460</v>
+        <v>176</v>
       </c>
       <c r="J9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>201</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>LINE_B</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="H10" t="n">
-        <v>232</v>
-      </c>
-      <c r="I10" t="n">
-        <v>232</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>420</v>
+        <v>675</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -518,20 +518,20 @@
         <v>45295</v>
       </c>
       <c r="H2" t="n">
-        <v>440</v>
+        <v>710</v>
       </c>
       <c r="I2" t="n">
-        <v>440</v>
+        <v>710</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>684</v>
+        <v>92</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>45294</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="G3" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>45296</v>
-      </c>
       <c r="H3" t="n">
-        <v>720</v>
+        <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>720</v>
+        <v>104</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1027</v>
+        <v>621</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -581,29 +581,29 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="G4" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>45297</v>
-      </c>
       <c r="H4" t="n">
-        <v>1080</v>
+        <v>660</v>
       </c>
       <c r="I4" t="n">
-        <v>1080</v>
+        <v>660</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>999</v>
+        <v>75</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -613,33 +613,33 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45298</v>
-      </c>
       <c r="H5" t="n">
-        <v>1050</v>
+        <v>80</v>
       </c>
       <c r="I5" t="n">
-        <v>1050</v>
+        <v>80</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70</v>
+        <v>675</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,33 +649,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="G6" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>45298</v>
-      </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>710</v>
       </c>
       <c r="I6" t="n">
-        <v>80</v>
+        <v>710</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>656</v>
+        <v>92</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,33 +685,33 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LINE_A</t>
+          <t>LINE_B</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>45299</v>
-      </c>
       <c r="H7" t="n">
-        <v>690</v>
+        <v>104</v>
       </c>
       <c r="I7" t="n">
-        <v>690</v>
+        <v>104</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>113</v>
+        <v>817</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -721,29 +721,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="G8" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>45299</v>
-      </c>
       <c r="H8" t="n">
-        <v>128</v>
+        <v>860</v>
       </c>
       <c r="I8" t="n">
-        <v>128</v>
+        <v>860</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -761,21 +761,165 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="H9" t="n">
+        <v>112</v>
+      </c>
+      <c r="I9" t="n">
+        <v>112</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>798</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="H10" t="n">
+        <v>840</v>
+      </c>
+      <c r="I10" t="n">
+        <v>840</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>99</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="H11" t="n">
+        <v>112</v>
+      </c>
+      <c r="I11" t="n">
+        <v>112</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>827</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>45300</v>
       </c>
-      <c r="H9" t="n">
-        <v>176</v>
-      </c>
-      <c r="I9" t="n">
-        <v>176</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>870</v>
+      </c>
+      <c r="I12" t="n">
+        <v>870</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>106</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="H13" t="n">
+        <v>120</v>
+      </c>
+      <c r="I13" t="n">
+        <v>120</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/summary/full_production_plan_report.xlsx
@@ -1,51 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/zhang_s_37_pg_com/Documents/Documents/GitHub/chainsight/e2e_test_output_12week_forecast_test/simulation_output/summary/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_2B59515713430A73ADAA6452503088B352998DAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57568615-9C36-48ED-88C6-E143C4266DB6}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FullProductionPlan" sheetId="1" r:id="rId1"/>
+    <sheet name="FullProductionPlan" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>produced_qty</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,43 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -384,17 +424,502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>produced_qty</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>simulation_date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>production_plan_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>available_date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>uncon_planned_qty</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>con_planned_qty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>changeover_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>675</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H2" t="n">
+        <v>710</v>
+      </c>
+      <c r="I2" t="n">
+        <v>710</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>92</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H3" t="n">
+        <v>104</v>
+      </c>
+      <c r="I3" t="n">
+        <v>104</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>621</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H4" t="n">
+        <v>660</v>
+      </c>
+      <c r="I4" t="n">
+        <v>660</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>75</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>675</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H6" t="n">
+        <v>710</v>
+      </c>
+      <c r="I6" t="n">
+        <v>710</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>92</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H7" t="n">
+        <v>104</v>
+      </c>
+      <c r="I7" t="n">
+        <v>104</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>817</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H8" t="n">
+        <v>860</v>
+      </c>
+      <c r="I8" t="n">
+        <v>860</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>99</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H9" t="n">
+        <v>112</v>
+      </c>
+      <c r="I9" t="n">
+        <v>112</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>798</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="H10" t="n">
+        <v>840</v>
+      </c>
+      <c r="I10" t="n">
+        <v>840</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>99</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="H11" t="n">
+        <v>112</v>
+      </c>
+      <c r="I11" t="n">
+        <v>112</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>827</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LINE_A</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="H12" t="n">
+        <v>870</v>
+      </c>
+      <c r="I12" t="n">
+        <v>870</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>106</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="H13" t="n">
+        <v>120</v>
+      </c>
+      <c r="I13" t="n">
+        <v>120</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
